--- a/doc/planningCookieClickerCalculator.xlsx
+++ b/doc/planningCookieClickerCalculator.xlsx
@@ -58,8 +58,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -124,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -135,6 +143,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,7 +448,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +508,7 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -524,6 +533,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
